--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3061752.51555007</v>
+        <v>3165932.150001143</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8328534.791435719</v>
+        <v>8328534.79143572</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>112.0088812068551</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>260.0947453200436</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>53.827044276916</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,10 +879,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>178.9318812424575</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>105.022105255189</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>33.38304376058745</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>27.96418733058738</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>42.12380361441399</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>138.3721243800024</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1187,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>297.4176400813334</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>68.96848981015782</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>119.6395518926743</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>13.5360100788514</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>62.50448303558206</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187881</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>68.57766702465777</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>57.28101103997177</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206849</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>108.3106907504144</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>127.5379405516743</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2245,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>84.53948348634543</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>79.36266849663015</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>29.67382008037378</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>143.5476780877535</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012183</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>151.5133592021549</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>186.1851504080593</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>68.64373283592688</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>217.0099009525713</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,10 +3043,10 @@
         <v>406.8760457417115</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576162</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174123</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X32" t="n">
         <v>369.7311006784691</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>53.82913822150018</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>58.21786903648848</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>69.82863813027375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>219.4517041866526</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>18.16423677622455</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>122.4770547252865</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>91.89996056624796</v>
+        <v>191.6604102493268</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1642.972675199008</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.010158258596</v>
+        <v>1583.077587705311</v>
       </c>
       <c r="D2" t="n">
-        <v>1274.010158258596</v>
+        <v>1583.077587705311</v>
       </c>
       <c r="E2" t="n">
-        <v>888.2219056603521</v>
+        <v>1197.289335107067</v>
       </c>
       <c r="F2" t="n">
-        <v>477.2360008707446</v>
+        <v>786.3034303174593</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>371.2309801624558</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4361,19 +4363,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.57251526313</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.57251526313</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.6287558445192</v>
+        <v>2097.796235700527</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>1928.86005277262</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1872.923796293628</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1681.237912120454</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T4" t="n">
-        <v>1459.47129668998</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U4" t="n">
-        <v>1170.368429815624</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V4" t="n">
-        <v>915.6839416097368</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W4" t="n">
-        <v>626.2667715727762</v>
+        <v>2097.796235700527</v>
       </c>
       <c r="X4" t="n">
-        <v>398.2772206747588</v>
+        <v>2097.796235700527</v>
       </c>
       <c r="Y4" t="n">
-        <v>398.2772206747588</v>
+        <v>2097.796235700527</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3109.232218535064</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>3109.232218535064</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="V5" t="n">
-        <v>2778.169331191494</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="W5" t="n">
-        <v>2425.400675921379</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.9349176603</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.795585684488</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1617.531552803567</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U7" t="n">
-        <v>1617.531552803567</v>
+        <v>1573.14817883533</v>
       </c>
       <c r="V7" t="n">
-        <v>1362.84706459768</v>
+        <v>1318.463690629443</v>
       </c>
       <c r="W7" t="n">
-        <v>1073.429894560719</v>
+        <v>1029.046520592482</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4403436627018</v>
+        <v>1029.046520592482</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6477645191717</v>
+        <v>1029.046520592482</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>552.807938939214</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>552.807938939214</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>552.807938939214</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>545.8624381900105</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4835,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>699.2355044562296</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C10" t="n">
-        <v>699.2355044562296</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>549.1188650438938</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>401.2057714615007</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1614.760631700497</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1325.65776482614</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1070.973276620253</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>781.5561065832925</v>
       </c>
       <c r="X10" t="n">
-        <v>1101.676548429999</v>
+        <v>553.5665556852751</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.8839692864693</v>
+        <v>332.773976541745</v>
       </c>
     </row>
     <row r="11">
@@ -5024,64 +5026,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.691883631202</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778168</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654812</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830883</v>
+        <v>553.1252546331716</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851781</v>
+        <v>406.2353071352612</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000581</v>
+        <v>239.0392078501412</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235167</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258108</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602306</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396419</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359459</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614415</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614415</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168626</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,7 +5281,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,19 +5293,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5312,16 +5314,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177311</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459611</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180544</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860768</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036838</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057736</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057736</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854708</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817748</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919731</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537762008</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5543,22 +5545,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1057.955258982922</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C19" t="n">
-        <v>889.0190760550148</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232831</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408901</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2318.136881002812</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854708</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854708</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.396302956691</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.603723813161</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1897.296768897751</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1642.612280691864</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1353.195110654903</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.195110654903</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2367.795837888943</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>961.4446166151475</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>792.5084336872407</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>642.3917942749049</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>494.4787006925118</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>347.5887531946014</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6184,13 +6186,13 @@
         <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X25" t="n">
-        <v>1363.885660588917</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y25" t="n">
-        <v>1143.093081445387</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.53722908186</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153953</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741617</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4068.287352154947</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3813.60286394906</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3524.185693912099</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3524.185693912099</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912099</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6488,7 +6490,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>542.9134462654469</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.6374272687975</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6619,52 +6621,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.169680383432</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.485192177545</v>
+        <v>1469.183933700594</v>
       </c>
       <c r="W31" t="n">
-        <v>1431.068022140585</v>
+        <v>1179.766763663633</v>
       </c>
       <c r="X31" t="n">
-        <v>1203.078471242567</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.2858920990373</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="32">
@@ -6686,55 +6688,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2532.719182723414</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,22 +6955,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3118.73869457197</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>2949.802511644064</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D37" t="n">
-        <v>2799.685872231728</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>2651.772778649335</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151424</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4620.299174489226</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4400.697709512167</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>4111.622482856365</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>3856.937994650479</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>3567.520824613518</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>3339.5312737155</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>3118.73869457197</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3966.646661122954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7399,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,16 +7414,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033212</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3046.798896214207</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>2877.8627132863</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>2727.746073873964</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>2579.832980291571</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>4221.331149328841</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>3966.646661122954</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W43" t="n">
-        <v>3677.229491085994</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X43" t="n">
-        <v>3449.239940187977</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>3228.447361044447</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3869.022106831312</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>4420.931837070599</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
   </sheetData>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>153.7108110197763</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>77.79022981064179</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>80.03780599355444</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>194.8566322838562</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>40.3047822677978</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>53.48834544997025</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>80.98465480592341</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>206.821805892614</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>135.8503182118951</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>75.03697526434127</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>134.6711151870894</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>39.52450498097789</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>217.5407415533173</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>35.12774237125666</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>113.4176828771276</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>109.0289520621394</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>111.1976478713708</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>6.257951202384561</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>127.2568112467067</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>129.6605885985415</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>125.5054897610403</v>
+        <v>25.74504007796142</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>717232.2660989771</v>
+        <v>717232.2660989772</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>717232.2660989771</v>
+        <v>717232.2660989772</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312481</v>
@@ -26323,37 +26325,37 @@
         <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287547</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551197</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815721</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680597</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680585</v>
+        <v>11776.97621680579</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26439,22 +26441,22 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680579</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680585</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809231.1486458951</v>
+        <v>-809231.148645895</v>
       </c>
       <c r="C6" t="n">
-        <v>519513.5970816974</v>
+        <v>519513.5970816981</v>
       </c>
       <c r="D6" t="n">
-        <v>519513.5970816977</v>
+        <v>519513.5970816971</v>
       </c>
       <c r="E6" t="n">
-        <v>267941.306880687</v>
+        <v>267941.3068806871</v>
       </c>
       <c r="F6" t="n">
-        <v>593353.7686880424</v>
+        <v>593353.7686880426</v>
       </c>
       <c r="G6" t="n">
-        <v>593353.7686880417</v>
+        <v>593353.7686880428</v>
       </c>
       <c r="H6" t="n">
         <v>593353.7686880428</v>
       </c>
       <c r="I6" t="n">
-        <v>593353.7686880428</v>
+        <v>593353.7686880426</v>
       </c>
       <c r="J6" t="n">
-        <v>375822.5662907651</v>
+        <v>375822.566290765</v>
       </c>
       <c r="K6" t="n">
-        <v>593353.7686880422</v>
+        <v>593353.7686880429</v>
       </c>
       <c r="L6" t="n">
-        <v>593353.7686880426</v>
+        <v>593353.7686880424</v>
       </c>
       <c r="M6" t="n">
-        <v>508298.7407525308</v>
+        <v>508298.7407525302</v>
       </c>
       <c r="N6" t="n">
         <v>593353.7686880425</v>
       </c>
       <c r="O6" t="n">
+        <v>593353.7686880424</v>
+      </c>
+      <c r="P6" t="n">
         <v>593353.7686880426</v>
-      </c>
-      <c r="P6" t="n">
-        <v>593353.7686880429</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26792,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>298.9128444465983</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>34.51301906727684</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>35.10510839313135</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>107.5911170941335</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>98.89586488443112</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>217.6121281983145</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>191.5847619455818</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>244.0880345911989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>272.5496012734511</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>72.31346059713565</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>76.45255821277343</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>99.90939738349491</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28327,19 +28329,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
     </row>
     <row r="15">
@@ -29755,10 +29757,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29797,10 +29799,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29809,13 +29811,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>-8.268133652481166e-14</v>
       </c>
     </row>
     <row r="33">
@@ -30466,16 +30468,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>295.9743940159484</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>463.4318227833011</v>
+        <v>435.9638754389774</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>428.6149474293401</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>198.5607970756955</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32719,7 +32721,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460027</v>
@@ -32783,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>166.2270851128133</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>195.7502366106279</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34226,10 +34228,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34457,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>161.9999866016181</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>320.8355783388566</v>
+        <v>293.367630994533</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>290.0605676494659</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125101</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36367,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902961</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>20.54758114884936</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640639</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>61.77582919629761</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37874,10 +37876,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38105,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3165932.150001143</v>
+        <v>3161919.539987151</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8328534.79143572</v>
+        <v>8328534.791435719</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>307.4838268694255</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>260.0947453200436</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,19 +873,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>29.53463786574826</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>178.9318812424575</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.84399365306222</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>33.38304376058745</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>42.12380361441399</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>62.09581973348902</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>76.97130521239144</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>297.4176400813334</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>42.86209348694693</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>119.6395518926743</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>62.50448303558206</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
-        <v>57.28101103997177</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>127.5379405516743</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>84.53948348634543</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>143.5476780877535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>186.1851504080593</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>217.0099009525713</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3091,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>53.82913822150018</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>58.21786903648848</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3748,10 +3748,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>122.4770547252865</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1952.040104645723</v>
+        <v>2269.968910186251</v>
       </c>
       <c r="C2" t="n">
-        <v>1583.077587705311</v>
+        <v>1901.00639324584</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.077587705311</v>
+        <v>1542.740694639089</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.289335107067</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>786.3034303174593</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>371.2309801624558</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4366,16 +4366,16 @@
         <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645723</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.040104645723</v>
+        <v>2656.568750250373</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2097.796235700527</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>1928.86005277262</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>1778.743413360284</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>1778.743413360284</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>1778.743413360284</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>1611.040576735003</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193525</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763051</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2533.219997888694</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="V4" t="n">
-        <v>2278.535509682808</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="W4" t="n">
-        <v>2097.796235700527</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="X4" t="n">
-        <v>2097.796235700527</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y4" t="n">
-        <v>2097.796235700527</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
         <v>1678.62132134232</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3181.594906913448</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3181.594906913448</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2828.826251643334</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X5" t="n">
-        <v>2455.360493382254</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158129</v>
@@ -4658,40 +4658,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.3980557622424</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343355</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4731,46 +4731,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1573.14817883533</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1318.463690629443</v>
+        <v>1864.571497852645</v>
       </c>
       <c r="W7" t="n">
-        <v>1029.046520592482</v>
+        <v>1575.154327815684</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.046520592482</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.046520592482</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508903</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,19 +4886,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.773976541745</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1614.760631700497</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1325.65776482614</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1070.973276620253</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>781.5561065832925</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X10" t="n">
-        <v>553.5665556852751</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y10" t="n">
-        <v>332.773976541745</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434716</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>701.0383482155647</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>701.0383482155647</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>553.1252546331716</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>406.2353071352612</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>239.0392078501412</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015259</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1630.526246743624</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1341.109076706663</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.119525808646</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2318.136881002812</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2098.535416025753</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P21" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>550.9217088032285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>403.0086152208354</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>403.0086152208354</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1425.313279727861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>620.8230468926974</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1023.264090866467</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>802.4715117229372</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,52 +6451,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1469.183933700594</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1179.766763663633</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>951.7772127656159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6691,13 +6691,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703114</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>641.1291986799072</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,25 +6952,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7651,19 +7651,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>77.79022981064179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
-        <v>194.8566322838562</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.48834544997025</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>80.98465480592341</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>75.03697526434127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>39.52450498097789</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>35.12774237125666</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>113.4176828771276</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>109.0289520621394</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>129.6605885985415</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729390.5400014698</v>
+        <v>729390.5400014699</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>717232.2660989771</v>
+        <v>717232.2660989772</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="10">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287557</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
@@ -26349,13 +26349,13 @@
         <v>706253.2747287552</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551197</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90964.01098815716</v>
+      </c>
+      <c r="C4" t="n">
         <v>90964.01098815713</v>
       </c>
-      <c r="C4" t="n">
-        <v>90964.01098815721</v>
-      </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680579</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26447,7 +26447,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680579</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26456,7 +26456,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26524,46 +26524,46 @@
         <v>-809231.148645895</v>
       </c>
       <c r="C6" t="n">
-        <v>519513.5970816981</v>
+        <v>519513.5970816977</v>
       </c>
       <c r="D6" t="n">
         <v>519513.5970816971</v>
       </c>
       <c r="E6" t="n">
-        <v>267941.3068806871</v>
+        <v>267593.9276263305</v>
       </c>
       <c r="F6" t="n">
-        <v>593353.7686880426</v>
+        <v>593006.3894336852</v>
       </c>
       <c r="G6" t="n">
-        <v>593353.7686880428</v>
+        <v>593006.3894336857</v>
       </c>
       <c r="H6" t="n">
-        <v>593353.7686880428</v>
+        <v>593006.3894336856</v>
       </c>
       <c r="I6" t="n">
-        <v>593353.7686880426</v>
+        <v>593006.3894336856</v>
       </c>
       <c r="J6" t="n">
-        <v>375822.566290765</v>
+        <v>375475.1870364081</v>
       </c>
       <c r="K6" t="n">
-        <v>593353.7686880429</v>
+        <v>593006.3894336857</v>
       </c>
       <c r="L6" t="n">
-        <v>593353.7686880424</v>
+        <v>593006.3894336856</v>
       </c>
       <c r="M6" t="n">
-        <v>508298.7407525302</v>
+        <v>507951.3614981735</v>
       </c>
       <c r="N6" t="n">
-        <v>593353.7686880425</v>
+        <v>593006.3894336857</v>
       </c>
       <c r="O6" t="n">
-        <v>593353.7686880424</v>
+        <v>593006.3894336857</v>
       </c>
       <c r="P6" t="n">
-        <v>593353.7686880426</v>
+        <v>593006.3894336857</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26792,16 +26792,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>74.44654320283627</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.51301906727684</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>256.6772003398646</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>107.5911170941335</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>331.8898480104183</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>217.6121281983145</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>244.0880345911989</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>190.041823590339</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>304.9590648598704</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>72.31346059713565</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>136.9698866949904</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>99.90939738349491</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28329,19 +28329,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29757,10 +29757,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29799,10 +29799,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29811,13 +29811,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30468,16 +30468,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31396,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31445,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31463,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868572</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>435.9638754389774</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q21" t="n">
-        <v>360.9226811202611</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648388</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>293.367630994533</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q21" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>439.1903400640639</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3161919.539987151</v>
+        <v>3163680.070289936</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>289.9418833697794</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>307.4838268694255</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,7 +873,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>29.53463786574826</v>
+        <v>29.53463786574916</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.84399365306222</v>
+        <v>50.84399365306312</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>51.06561173382057</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>62.09581973348902</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>76.97130521239144</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>174.7869190180879</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.86209348694693</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1350,7 +1350,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>210.1089145855747</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053459</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>161.0175085755505</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>86.80636739625365</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>35.41770597126713</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2269.968910186251</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C2" t="n">
-        <v>1901.00639324584</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1542.740694639089</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X2" t="n">
-        <v>2656.568750250373</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y2" t="n">
-        <v>2656.568750250373</v>
+        <v>2251.634947019674</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4488,19 +4488,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,13 +4509,13 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
         <v>1424.011591242373</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4606,13 +4606,13 @@
         <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.94140762926</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4667,7 +4667,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.7237329438971</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>118.0935424259416</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1864.571497852645</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.154327815684</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.164776917667</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1126.372197774137</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="8">
@@ -4786,25 +4786,25 @@
         <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1012.316163281155</v>
+        <v>654.050464674405</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>654.050464674405</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>243.0645598847975</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C10" t="n">
         <v>922.6774975139006</v>
@@ -4998,16 +4998,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368016</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="Y10" t="n">
-        <v>1134.908724368016</v>
+        <v>922.6774975139006</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5500,7 +5500,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5515,28 +5515,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5591,7 +5591,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5676,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,25 +6004,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,7 +6062,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273903</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,37 +6451,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7785,19 +7785,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194237</v>
+        <v>182.9484181982414</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>80.44045370237419</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729390.5400014699</v>
+        <v>729390.5400014698</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>717232.2660989771</v>
+        <v>717232.2660989772</v>
       </c>
     </row>
     <row r="11">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312476</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312481</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26435,7 +26435,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809231.148645895</v>
+        <v>-809231.1486458951</v>
       </c>
       <c r="C6" t="n">
+        <v>519513.5970816973</v>
+      </c>
+      <c r="D6" t="n">
         <v>519513.5970816977</v>
       </c>
-      <c r="D6" t="n">
-        <v>519513.5970816971</v>
-      </c>
       <c r="E6" t="n">
-        <v>267593.9276263305</v>
+        <v>267906.5689552517</v>
       </c>
       <c r="F6" t="n">
-        <v>593006.3894336852</v>
+        <v>593319.0307626068</v>
       </c>
       <c r="G6" t="n">
-        <v>593006.3894336857</v>
+        <v>593319.0307626069</v>
       </c>
       <c r="H6" t="n">
-        <v>593006.3894336856</v>
+        <v>593319.0307626068</v>
       </c>
       <c r="I6" t="n">
-        <v>593006.3894336856</v>
+        <v>593319.0307626071</v>
       </c>
       <c r="J6" t="n">
-        <v>375475.1870364081</v>
+        <v>375787.8283653291</v>
       </c>
       <c r="K6" t="n">
-        <v>593006.3894336857</v>
+        <v>593319.0307626071</v>
       </c>
       <c r="L6" t="n">
-        <v>593006.3894336856</v>
+        <v>593319.0307626071</v>
       </c>
       <c r="M6" t="n">
-        <v>507951.3614981735</v>
+        <v>508264.0028270949</v>
       </c>
       <c r="N6" t="n">
-        <v>593006.3894336857</v>
+        <v>593319.030762607</v>
       </c>
       <c r="O6" t="n">
-        <v>593006.3894336857</v>
+        <v>593319.0307626069</v>
       </c>
       <c r="P6" t="n">
-        <v>593006.3894336857</v>
+        <v>593319.0307626071</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>75.33100840122819</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>74.44654320283627</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>256.6772003398646</v>
+        <v>256.6772003398637</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>331.8898480104183</v>
+        <v>331.8898480104174</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>93.68940318050021</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>190.041823590339</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>304.9590648598704</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>236.1348066353655</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.9698866949904</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>42.02872873825328</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902408</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
